--- a/nop-report/nop-report-core/src/test/resources/_vfs/nop/report/demo/test-hidden.xpt.xlsx
+++ b/nop-report/nop-report-core/src/test/resources/_vfs/nop/report/demo/test-hidden.xpt.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-core\src\test\resources\_vfs\nop\report\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3D2E71-A499-4765-905F-C137402FA5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648C5C52-182D-4A7A-9388-37549AC471DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{32BD584F-F588-4B82-964D-F0C59036592B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{32BD584F-F588-4B82-964D-F0C59036592B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="XptWorkbookModel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +57,10 @@
   </si>
   <si>
     <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除隐藏单元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,12 +83,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -115,11 +126,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD1E598-2818-4952-B5C7-3A7FAA809F06}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -483,4 +497,31 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96157C6-FB2D-4921-94B5-B8CDA9F25D7D}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>